--- a/InvestmentAssignment/Investments.xlsx
+++ b/InvestmentAssignment/Investments.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>C1</t>
   </si>
@@ -361,6 +361,45 @@
   </si>
   <si>
     <t>Venture</t>
+  </si>
+  <si>
+    <t>410355100000 (USA)</t>
+  </si>
+  <si>
+    <t>19386340000 (GBR)</t>
+  </si>
+  <si>
+    <t>14870600000 (IND)</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Social, Finance, Analytics, Advertising</t>
+  </si>
+  <si>
+    <t>Cleantech / Semiconductors</t>
+  </si>
+  <si>
+    <t>/ORGANIZATION/FREESCALE (Freescale Semiconductor)</t>
+  </si>
+  <si>
+    <t>/ORGANIZATION/SOCIAL-FINANCE (SoFi)</t>
+  </si>
+  <si>
+    <t>/ORGANIZATION/ONEWEB (OneWeb)</t>
+  </si>
+  <si>
+    <t>/ORGANIZATION/MEREO (Mereo)</t>
+  </si>
+  <si>
+    <t>News, Search and Messaging</t>
+  </si>
+  <si>
+    <t>/ORGANIZATION/FLIPKART (Flipkart)</t>
+  </si>
+  <si>
+    <t>/ORGANIZATION/SHOPCLUES-COM (ShopClues.com)</t>
   </si>
 </sst>
 </file>
@@ -590,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,6 +702,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,7 +736,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,23 +1067,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="9.75" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
@@ -1151,21 +1193,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="10" t="s">
@@ -1258,7 +1300,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1269,21 +1311,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
@@ -1303,8 +1345,8 @@
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7">
-        <v>410355100000</v>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25">
@@ -1314,10 +1356,10 @@
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7">
-        <v>19386340000</v>
-      </c>
-      <c r="G6" s="39"/>
+      <c r="C6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" ht="17.25">
       <c r="A7" s="6">
@@ -1326,8 +1368,8 @@
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7">
-        <v>14870600000</v>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1397,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1368,23 +1410,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
@@ -1410,9 +1452,15 @@
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="17">
+        <v>35809</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2132</v>
+      </c>
+      <c r="E5" s="20">
+        <v>960</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="19">
@@ -1421,9 +1469,15 @@
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="17">
+        <v>410355149987</v>
+      </c>
+      <c r="D6" s="17">
+        <v>19386343570</v>
+      </c>
+      <c r="E6" s="20">
+        <v>14870603718</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="19">
@@ -1432,31 +1486,49 @@
       <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="19">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45">
       <c r="A9" s="19">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="19">
@@ -1465,9 +1537,15 @@
       <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="17">
+        <v>8200</v>
+      </c>
+      <c r="D10" s="17">
+        <v>544</v>
+      </c>
+      <c r="E10" s="17">
+        <v>320</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="19">
@@ -1476,9 +1554,15 @@
       <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="17">
+        <v>7767</v>
+      </c>
+      <c r="D11" s="17">
+        <v>449</v>
+      </c>
+      <c r="E11" s="17">
+        <v>183</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="19">
@@ -1487,31 +1571,49 @@
       <c r="B12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
+      <c r="C12" s="17">
+        <v>7413</v>
+      </c>
+      <c r="D12" s="17">
+        <v>428</v>
+      </c>
+      <c r="E12" s="17">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45">
       <c r="A13" s="19">
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1">
+      <c r="C13" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60.75" thickBot="1">
       <c r="A14" s="19">
         <v>10</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1519,7 +1621,7 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -1527,7 +1629,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1538,7 +1640,269 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E14">
+  <conditionalFormatting sqref="A5:B14 C7 D7:D12 E7:E8 C10:E12">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A14">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1550,13 +1914,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A14">
+  <conditionalFormatting sqref="E14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/InvestmentAssignment/Investments.xlsx
+++ b/InvestmentAssignment/Investments.xlsx
@@ -703,6 +703,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -735,9 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,7 +1045,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1067,23 +1067,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="9.75" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
@@ -1193,21 +1193,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="10" t="s">
@@ -1311,21 +1311,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1410,23 +1410,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="22" t="s">
@@ -1588,13 +1588,13 @@
       <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="29" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1605,13 +1605,13 @@
       <c r="B14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="29" t="s">
         <v>55</v>
       </c>
     </row>
